--- a/2017_2/204-Gnjatovic/204-1013-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1013-1-SP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\INZSERVER\RedirectedFolders\Nejab\My Documents\GitHub\PNZ\2017_2\204-Gnjatovic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -43,11 +48,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -114,12 +119,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -130,19 +129,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Slog tabele 1" pivot="0" count="0"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D12" totalsRowShown="0">
+  <autoFilter ref="A1:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="Domestic debt (1) " dataDxfId="2"/>
+    <tableColumn id="3" name="Foreign debt (2) " dataDxfId="1"/>
+    <tableColumn id="4" name="Public debt (1+2) " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Slog tabele 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,27 +464,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:6" ht="25.5">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,170 +498,170 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1929</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>5193.8999999999996</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>29466.9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>34660.800000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1930</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>5351.6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>29055.8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>34407.4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1931</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>5500.6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>30384</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>35884.6</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1932</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>6020.3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>32763.200000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>38783.5</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>1933</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>7972</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>18326</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>26298</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1934</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>8731</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>20643</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>29374</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>1935</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>8662</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>21049</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>29711</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>1936</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>8900</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>21378.5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>30278.5</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1937</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>9300</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>15400</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>24359</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>1938</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>9300</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>14200</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>23500</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>1939</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>12620</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>12000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>24620</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="177" customHeight="1">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:6" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -633,27 +674,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1929</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5193.8999999999996</v>
+      </c>
+      <c r="C2" s="9">
+        <v>29466.9</v>
+      </c>
+      <c r="D2" s="9">
+        <v>34660.800000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1930</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5351.6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>29055.8</v>
+      </c>
+      <c r="D3" s="9">
+        <v>34407.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1931</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5500.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>30384</v>
+      </c>
+      <c r="D4" s="9">
+        <v>35884.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1932</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6020.3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>32763.200000000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>38783.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1933</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7972</v>
+      </c>
+      <c r="C6" s="9">
+        <v>18326</v>
+      </c>
+      <c r="D6" s="9">
+        <v>26298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1934</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8731</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20643</v>
+      </c>
+      <c r="D7" s="9">
+        <v>29374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1935</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8662</v>
+      </c>
+      <c r="C8" s="9">
+        <v>21049</v>
+      </c>
+      <c r="D8" s="9">
+        <v>29711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1936</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8900</v>
+      </c>
+      <c r="C9" s="9">
+        <v>21378.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>30278.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1937</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9300</v>
+      </c>
+      <c r="C10" s="9">
+        <v>15400</v>
+      </c>
+      <c r="D10" s="9">
+        <v>24359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1938</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9300</v>
+      </c>
+      <c r="C11" s="9">
+        <v>14200</v>
+      </c>
+      <c r="D11" s="9">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1939</v>
+      </c>
+      <c r="B12" s="9">
+        <v>12620</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="9">
+        <v>24620</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
